--- a/data/trans_dic/P4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2</t>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 94,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>28,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>29,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>30,02%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26,91%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28,1%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29,6%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
           <t>29,76%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>30,06%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>29,96%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>30,84%</t>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>23,01%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,39; 35,79</t>
+          <t>18,62; 40,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,27; 37,18</t>
+          <t>19,94; 48,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,28; 37,38</t>
+          <t>18,83; 45,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,19; 41,02</t>
+          <t>21,0; 52,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,66; 36,29</t>
+          <t>12,16; 27,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,66; 37,24</t>
+          <t>23,37; 36,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,6; 36,82</t>
+          <t>24,31; 37,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,89; 36,61</t>
+          <t>24,44; 36,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,33; 34,53</t>
+          <t>23,15; 36,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,39; 35,31</t>
+          <t>20,39; 35,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,01; 34,6</t>
+          <t>23,16; 34,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,53; 35,98</t>
+          <t>24,34; 37,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>23,48; 36,85</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>24,36; 39,5</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>17,53; 27,97</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,59%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>17,93%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>22,97%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,98; 22,33</t>
+          <t>12,83; 29,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,92; 22,89</t>
+          <t>11,99; 29,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,82; 24,57</t>
+          <t>12,6; 30,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,4; 21,73</t>
+          <t>10,86; 26,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,69; 25,47</t>
+          <t>15,8; 32,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,26; 27,05</t>
+          <t>10,15; 22,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,9; 30,03</t>
+          <t>10,15; 23,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,93; 28,62</t>
+          <t>11,55; 24,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,97; 21,88</t>
+          <t>12,11; 26,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,35; 22,76</t>
+          <t>16,25; 31,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,38; 24,94</t>
+          <t>13,22; 22,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 22,42</t>
+          <t>13,09; 24,2</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,76; 25,54</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13,62; 23,73</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 29,38</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>20,6%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26,33%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>19,98%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 42,66</t>
+          <t>0,0; 64,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 44,46</t>
+          <t>0,0; 63,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 37,82</t>
+          <t>6,56; 67,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 43,06</t>
+          <t>8,72; 70,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 21,16</t>
+          <t>10,31; 49,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 21,68</t>
+          <t>0,0; 21,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 22,17</t>
+          <t>0,0; 23,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 27,58</t>
+          <t>2,84; 22,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 31,49</t>
+          <t>6,31; 33,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 31,88</t>
+          <t>4,11; 32,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 27,81</t>
+          <t>3,48; 46,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 34,81</t>
+          <t>2,06; 46,98</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 50,28</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11,16; 53,42</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 34,34</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>23,32%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23,89%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>22,73%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,21; 27,49</t>
+          <t>17,33; 31,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,93; 27,81</t>
+          <t>17,88; 34,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 27,99</t>
+          <t>17,87; 32,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,34; 28,98</t>
+          <t>18,45; 35,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 28,14</t>
+          <t>15,82; 26,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,7; 29,05</t>
+          <t>17,76; 26,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,05; 29,58</t>
+          <t>18,32; 27,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,5; 29,17</t>
+          <t>19,63; 28,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,59; 26,28</t>
+          <t>19,91; 29,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,81; 26,9</t>
+          <t>19,73; 29,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,99; 27,14</t>
+          <t>19,31; 27,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,32; 27,95</t>
+          <t>19,84; 28,77</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>19,93; 28,83</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>21,14; 30,81</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 26,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda cuya superficie es menor o igual que 75m2 (tasa de respuesta: 94,38%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>91776</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>115947</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>93349</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>105527</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>93457</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>116835</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>141413</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>117645</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>109003</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>130667</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>208611</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>257360</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>210994</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>214530</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>224123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>65040; 139952</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>81869; 197610</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>65694; 158812</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>75142; 187367</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>59393; 132832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>91866; 144642</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>111579; 172641</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>93679; 141520</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>84053; 133927</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>99016; 171271</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>171972; 258658</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>211592; 326253</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>171928; 269823</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>175601; 284737</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>170760; 272377</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>57082</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65725</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>59466</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>53410</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>88616</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>47643</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>58760</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50206</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52036</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>74141</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>104725</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>124485</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>109672</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>105447</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>162757</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>38047; 86872</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>41877; 104410</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38712; 93958</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33462; 81180</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>61561; 125538</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>30428; 68402</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>37106; 84659</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32677; 70301</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>33904; 72821</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>51832; 101029</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>78854; 134946</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>93580; 172992</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>81162; 150668</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>80110; 139558</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>126893; 208206</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21230</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24322</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23745</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28904</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20548</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4641</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6545</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6568</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11581</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11573</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25871</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>30867</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>30312</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>40485</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>32121</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 53105</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 62169</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5048; 52016</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7221; 58669</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8437; 40348</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14888</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20113</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1997; 16116</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4479; 23540</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3248; 25861</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5268; 70156</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3814; 87096</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>9921; 73994</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17168; 82144</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>15741; 55201</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>170088</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>205994</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>176559</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>187841</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>202621</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>169119</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>206719</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>174419</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>172621</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>216381</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>339207</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>412713</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>350978</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>360462</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>419002</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>126136; 231528</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>153428; 291803</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>130945; 241726</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>138164; 268975</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>151801; 255943</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>135444; 204847</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>166990; 249233</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>144577; 209276</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>142195; 208234</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>174300; 264662</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>287824; 413668</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>351139; 509129</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>292837; 423647</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>309331; 450681</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>351259; 493906</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
